--- a/Data/EC/NIT-8909819121.xlsx
+++ b/Data/EC/NIT-8909819121.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{65EBC7F3-4BE8-4147-82FB-5D646DBFCB41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{13415B49-F685-4D09-A62A-6C8A3B5B750F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{45C354DA-8162-4AEE-9E63-D039E1A9A11F}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{1B942DF8-4B7A-4491-A365-6446F0405FF7}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="58">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -71,109 +71,112 @@
     <t>REGINA MARIA RIVERO COGOLLO</t>
   </si>
   <si>
+    <t>2507</t>
+  </si>
+  <si>
+    <t>2506</t>
+  </si>
+  <si>
+    <t>2505</t>
+  </si>
+  <si>
+    <t>2504</t>
+  </si>
+  <si>
+    <t>2503</t>
+  </si>
+  <si>
+    <t>2502</t>
+  </si>
+  <si>
+    <t>2501</t>
+  </si>
+  <si>
+    <t>2412</t>
+  </si>
+  <si>
+    <t>2411</t>
+  </si>
+  <si>
+    <t>2410</t>
+  </si>
+  <si>
+    <t>2409</t>
+  </si>
+  <si>
+    <t>2408</t>
+  </si>
+  <si>
+    <t>2407</t>
+  </si>
+  <si>
+    <t>2406</t>
+  </si>
+  <si>
+    <t>2405</t>
+  </si>
+  <si>
+    <t>2404</t>
+  </si>
+  <si>
+    <t>2403</t>
+  </si>
+  <si>
+    <t>2402</t>
+  </si>
+  <si>
+    <t>2401</t>
+  </si>
+  <si>
+    <t>2312</t>
+  </si>
+  <si>
+    <t>2311</t>
+  </si>
+  <si>
+    <t>2310</t>
+  </si>
+  <si>
+    <t>2309</t>
+  </si>
+  <si>
+    <t>2308</t>
+  </si>
+  <si>
+    <t>2307</t>
+  </si>
+  <si>
+    <t>2306</t>
+  </si>
+  <si>
+    <t>2305</t>
+  </si>
+  <si>
+    <t>2304</t>
+  </si>
+  <si>
+    <t>2303</t>
+  </si>
+  <si>
+    <t>2302</t>
+  </si>
+  <si>
+    <t>2301</t>
+  </si>
+  <si>
+    <t>2212</t>
+  </si>
+  <si>
+    <t>2211</t>
+  </si>
+  <si>
     <t>2210</t>
   </si>
   <si>
-    <t>2211</t>
-  </si>
-  <si>
-    <t>2212</t>
-  </si>
-  <si>
-    <t>2301</t>
-  </si>
-  <si>
-    <t>2302</t>
-  </si>
-  <si>
-    <t>2303</t>
-  </si>
-  <si>
-    <t>2304</t>
-  </si>
-  <si>
-    <t>2305</t>
-  </si>
-  <si>
-    <t>2306</t>
-  </si>
-  <si>
-    <t>2307</t>
-  </si>
-  <si>
-    <t>2308</t>
-  </si>
-  <si>
-    <t>2309</t>
-  </si>
-  <si>
-    <t>2310</t>
-  </si>
-  <si>
-    <t>2311</t>
-  </si>
-  <si>
-    <t>2312</t>
-  </si>
-  <si>
-    <t>2401</t>
-  </si>
-  <si>
-    <t>2402</t>
-  </si>
-  <si>
     <t>15725847</t>
   </si>
   <si>
     <t>LUIS EDUARDO VERGARA RIVERO</t>
-  </si>
-  <si>
-    <t>2403</t>
-  </si>
-  <si>
-    <t>2404</t>
-  </si>
-  <si>
-    <t>2405</t>
-  </si>
-  <si>
-    <t>2406</t>
-  </si>
-  <si>
-    <t>2407</t>
-  </si>
-  <si>
-    <t>2408</t>
-  </si>
-  <si>
-    <t>2409</t>
-  </si>
-  <si>
-    <t>2410</t>
-  </si>
-  <si>
-    <t>2411</t>
-  </si>
-  <si>
-    <t>2412</t>
-  </si>
-  <si>
-    <t>2501</t>
-  </si>
-  <si>
-    <t>2502</t>
-  </si>
-  <si>
-    <t>2503</t>
-  </si>
-  <si>
-    <t>2504</t>
-  </si>
-  <si>
-    <t>2505</t>
-  </si>
-  <si>
-    <t>2506</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -587,7 +590,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BCFD6C13-8A82-66C1-DD1F-FFE09343531C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{267328C1-7C05-56AC-C45E-4C740DB95801}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -938,8 +941,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F5141BB-BC5A-4140-8F66-0A94B6653D18}">
-  <dimension ref="B2:J70"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83963389-AC9C-4EE5-8ACC-EA1D183BB91F}">
+  <dimension ref="B2:J72"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -963,7 +966,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1008,7 +1011,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1040,12 +1043,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>4544160</v>
+        <v>4721920</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1056,17 +1059,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C13" s="5">
         <v>2</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F13" s="5">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1093,13 +1096,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="I15" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="I15" s="13" t="s">
-        <v>51</v>
-      </c>
       <c r="J15" s="14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1498,19 +1501,19 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E33" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="E33" s="16" t="s">
-        <v>30</v>
-      </c>
       <c r="F33" s="18">
-        <v>77760</v>
+        <v>100000</v>
       </c>
       <c r="G33" s="18">
-        <v>1944000</v>
+        <v>2500000</v>
       </c>
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
@@ -1527,7 +1530,7 @@
         <v>10</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F34" s="18">
         <v>100000</v>
@@ -1544,19 +1547,19 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F35" s="18">
-        <v>77760</v>
+        <v>100000</v>
       </c>
       <c r="G35" s="18">
-        <v>1944000</v>
+        <v>2500000</v>
       </c>
       <c r="H35" s="19"/>
       <c r="I35" s="19"/>
@@ -1613,19 +1616,19 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F38" s="18">
-        <v>77760</v>
+        <v>100000</v>
       </c>
       <c r="G38" s="18">
-        <v>1944000</v>
+        <v>2500000</v>
       </c>
       <c r="H38" s="19"/>
       <c r="I38" s="19"/>
@@ -1642,7 +1645,7 @@
         <v>10</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F39" s="18">
         <v>100000</v>
@@ -1659,19 +1662,19 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F40" s="18">
-        <v>77760</v>
+        <v>100000</v>
       </c>
       <c r="G40" s="18">
-        <v>1944000</v>
+        <v>2500000</v>
       </c>
       <c r="H40" s="19"/>
       <c r="I40" s="19"/>
@@ -1682,19 +1685,19 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F41" s="18">
-        <v>77760</v>
+        <v>100000</v>
       </c>
       <c r="G41" s="18">
-        <v>1944000</v>
+        <v>2500000</v>
       </c>
       <c r="H41" s="19"/>
       <c r="I41" s="19"/>
@@ -1711,7 +1714,7 @@
         <v>10</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F42" s="18">
         <v>100000</v>
@@ -1734,7 +1737,7 @@
         <v>10</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F43" s="18">
         <v>100000</v>
@@ -1751,19 +1754,19 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F44" s="18">
-        <v>77760</v>
+        <v>100000</v>
       </c>
       <c r="G44" s="18">
-        <v>1944000</v>
+        <v>2500000</v>
       </c>
       <c r="H44" s="19"/>
       <c r="I44" s="19"/>
@@ -1780,7 +1783,7 @@
         <v>10</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F45" s="18">
         <v>100000</v>
@@ -1797,19 +1800,19 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F46" s="18">
-        <v>77760</v>
+        <v>100000</v>
       </c>
       <c r="G46" s="18">
-        <v>1944000</v>
+        <v>2500000</v>
       </c>
       <c r="H46" s="19"/>
       <c r="I46" s="19"/>
@@ -1826,7 +1829,7 @@
         <v>10</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="F47" s="18">
         <v>100000</v>
@@ -1843,19 +1846,19 @@
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="F48" s="18">
-        <v>77760</v>
+        <v>100000</v>
       </c>
       <c r="G48" s="18">
-        <v>1944000</v>
+        <v>2500000</v>
       </c>
       <c r="H48" s="19"/>
       <c r="I48" s="19"/>
@@ -1872,7 +1875,7 @@
         <v>10</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="F49" s="18">
         <v>100000</v>
@@ -1889,13 +1892,13 @@
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="F50" s="18">
         <v>77760</v>
@@ -1912,13 +1915,13 @@
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="F51" s="18">
         <v>77760</v>
@@ -1935,19 +1938,19 @@
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="F52" s="18">
-        <v>100000</v>
+        <v>77760</v>
       </c>
       <c r="G52" s="18">
-        <v>2500000</v>
+        <v>1944000</v>
       </c>
       <c r="H52" s="19"/>
       <c r="I52" s="19"/>
@@ -1958,13 +1961,13 @@
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="F53" s="18">
         <v>77760</v>
@@ -1981,19 +1984,19 @@
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="F54" s="18">
-        <v>100000</v>
+        <v>77760</v>
       </c>
       <c r="G54" s="18">
-        <v>2500000</v>
+        <v>1944000</v>
       </c>
       <c r="H54" s="19"/>
       <c r="I54" s="19"/>
@@ -2004,19 +2007,19 @@
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="F55" s="18">
-        <v>100000</v>
+        <v>77760</v>
       </c>
       <c r="G55" s="18">
-        <v>2500000</v>
+        <v>1944000</v>
       </c>
       <c r="H55" s="19"/>
       <c r="I55" s="19"/>
@@ -2027,13 +2030,13 @@
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="F56" s="18">
         <v>77760</v>
@@ -2050,19 +2053,19 @@
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="F57" s="18">
-        <v>100000</v>
+        <v>77760</v>
       </c>
       <c r="G57" s="18">
-        <v>2500000</v>
+        <v>1944000</v>
       </c>
       <c r="H57" s="19"/>
       <c r="I57" s="19"/>
@@ -2073,13 +2076,13 @@
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="F58" s="18">
         <v>77760</v>
@@ -2096,19 +2099,19 @@
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="F59" s="18">
-        <v>100000</v>
+        <v>77760</v>
       </c>
       <c r="G59" s="18">
-        <v>2500000</v>
+        <v>1944000</v>
       </c>
       <c r="H59" s="19"/>
       <c r="I59" s="19"/>
@@ -2119,13 +2122,13 @@
         <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="F60" s="18">
         <v>77760</v>
@@ -2142,13 +2145,13 @@
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="F61" s="18">
         <v>77760</v>
@@ -2165,19 +2168,19 @@
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="F62" s="18">
-        <v>100000</v>
+        <v>77760</v>
       </c>
       <c r="G62" s="18">
-        <v>2500000</v>
+        <v>1944000</v>
       </c>
       <c r="H62" s="19"/>
       <c r="I62" s="19"/>
@@ -2188,13 +2191,13 @@
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="F63" s="18">
         <v>77760</v>
@@ -2207,56 +2210,102 @@
       <c r="J63" s="20"/>
     </row>
     <row r="64" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B64" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C64" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="D64" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="E64" s="22" t="s">
+      <c r="B64" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C64" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="F64" s="24">
-        <v>100000</v>
-      </c>
-      <c r="G64" s="24">
-        <v>2500000</v>
-      </c>
-      <c r="H64" s="25"/>
-      <c r="I64" s="25"/>
-      <c r="J64" s="26"/>
-    </row>
-    <row r="69" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B69" s="32" t="s">
+      <c r="D64" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="E64" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F64" s="18">
+        <v>77760</v>
+      </c>
+      <c r="G64" s="18">
+        <v>1944000</v>
+      </c>
+      <c r="H64" s="19"/>
+      <c r="I64" s="19"/>
+      <c r="J64" s="20"/>
+    </row>
+    <row r="65" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B65" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C65" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D65" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="E65" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="F65" s="18">
+        <v>77760</v>
+      </c>
+      <c r="G65" s="18">
+        <v>1944000</v>
+      </c>
+      <c r="H65" s="19"/>
+      <c r="I65" s="19"/>
+      <c r="J65" s="20"/>
+    </row>
+    <row r="66" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B66" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C66" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="D66" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="E66" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="F66" s="24">
+        <v>77760</v>
+      </c>
+      <c r="G66" s="24">
+        <v>1944000</v>
+      </c>
+      <c r="H66" s="25"/>
+      <c r="I66" s="25"/>
+      <c r="J66" s="26"/>
+    </row>
+    <row r="71" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B71" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="C71" s="32"/>
+      <c r="H71" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I71" s="1"/>
+      <c r="J71" s="1"/>
+    </row>
+    <row r="72" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B72" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="C69" s="32"/>
-      <c r="H69" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="I69" s="1"/>
-      <c r="J69" s="1"/>
-    </row>
-    <row r="70" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B70" s="32" t="s">
-        <v>54</v>
-      </c>
-      <c r="C70" s="32"/>
-      <c r="H70" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="I70" s="1"/>
-      <c r="J70" s="1"/>
+      <c r="C72" s="32"/>
+      <c r="H72" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I72" s="1"/>
+      <c r="J72" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="H70:J70"/>
-    <mergeCell ref="H69:J69"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="H72:J72"/>
+    <mergeCell ref="H71:J71"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>

--- a/Data/EC/NIT-8909819121.xlsx
+++ b/Data/EC/NIT-8909819121.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{13415B49-F685-4D09-A62A-6C8A3B5B750F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{42570273-F27A-414E-B0E9-74363524F738}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{1B942DF8-4B7A-4491-A365-6446F0405FF7}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{83BAF6B8-AAC5-4270-A3BC-86EDACCCEDB6}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="59">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -71,112 +71,115 @@
     <t>REGINA MARIA RIVERO COGOLLO</t>
   </si>
   <si>
+    <t>2210</t>
+  </si>
+  <si>
+    <t>2211</t>
+  </si>
+  <si>
+    <t>2212</t>
+  </si>
+  <si>
+    <t>2301</t>
+  </si>
+  <si>
+    <t>2302</t>
+  </si>
+  <si>
+    <t>2303</t>
+  </si>
+  <si>
+    <t>2304</t>
+  </si>
+  <si>
+    <t>2305</t>
+  </si>
+  <si>
+    <t>2306</t>
+  </si>
+  <si>
+    <t>2307</t>
+  </si>
+  <si>
+    <t>2308</t>
+  </si>
+  <si>
+    <t>2309</t>
+  </si>
+  <si>
+    <t>2310</t>
+  </si>
+  <si>
+    <t>2311</t>
+  </si>
+  <si>
+    <t>2312</t>
+  </si>
+  <si>
+    <t>2401</t>
+  </si>
+  <si>
+    <t>2402</t>
+  </si>
+  <si>
+    <t>2403</t>
+  </si>
+  <si>
+    <t>15725847</t>
+  </si>
+  <si>
+    <t>LUIS EDUARDO VERGARA RIVERO</t>
+  </si>
+  <si>
+    <t>2404</t>
+  </si>
+  <si>
+    <t>2405</t>
+  </si>
+  <si>
+    <t>2406</t>
+  </si>
+  <si>
+    <t>2407</t>
+  </si>
+  <si>
+    <t>2408</t>
+  </si>
+  <si>
+    <t>2409</t>
+  </si>
+  <si>
+    <t>2410</t>
+  </si>
+  <si>
+    <t>2411</t>
+  </si>
+  <si>
+    <t>2412</t>
+  </si>
+  <si>
+    <t>2501</t>
+  </si>
+  <si>
+    <t>2502</t>
+  </si>
+  <si>
+    <t>2503</t>
+  </si>
+  <si>
+    <t>2504</t>
+  </si>
+  <si>
+    <t>2505</t>
+  </si>
+  <si>
+    <t>2506</t>
+  </si>
+  <si>
     <t>2507</t>
   </si>
   <si>
-    <t>2506</t>
-  </si>
-  <si>
-    <t>2505</t>
-  </si>
-  <si>
-    <t>2504</t>
-  </si>
-  <si>
-    <t>2503</t>
-  </si>
-  <si>
-    <t>2502</t>
-  </si>
-  <si>
-    <t>2501</t>
-  </si>
-  <si>
-    <t>2412</t>
-  </si>
-  <si>
-    <t>2411</t>
-  </si>
-  <si>
-    <t>2410</t>
-  </si>
-  <si>
-    <t>2409</t>
-  </si>
-  <si>
-    <t>2408</t>
-  </si>
-  <si>
-    <t>2407</t>
-  </si>
-  <si>
-    <t>2406</t>
-  </si>
-  <si>
-    <t>2405</t>
-  </si>
-  <si>
-    <t>2404</t>
-  </si>
-  <si>
-    <t>2403</t>
-  </si>
-  <si>
-    <t>2402</t>
-  </si>
-  <si>
-    <t>2401</t>
-  </si>
-  <si>
-    <t>2312</t>
-  </si>
-  <si>
-    <t>2311</t>
-  </si>
-  <si>
-    <t>2310</t>
-  </si>
-  <si>
-    <t>2309</t>
-  </si>
-  <si>
-    <t>2308</t>
-  </si>
-  <si>
-    <t>2307</t>
-  </si>
-  <si>
-    <t>2306</t>
-  </si>
-  <si>
-    <t>2305</t>
-  </si>
-  <si>
-    <t>2304</t>
-  </si>
-  <si>
-    <t>2303</t>
-  </si>
-  <si>
-    <t>2302</t>
-  </si>
-  <si>
-    <t>2301</t>
-  </si>
-  <si>
-    <t>2212</t>
-  </si>
-  <si>
-    <t>2211</t>
-  </si>
-  <si>
-    <t>2210</t>
-  </si>
-  <si>
-    <t>15725847</t>
-  </si>
-  <si>
-    <t>LUIS EDUARDO VERGARA RIVERO</t>
+    <t>2508</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -275,7 +278,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -288,9 +293,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -490,23 +493,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -534,10 +537,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -590,7 +593,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{267328C1-7C05-56AC-C45E-4C740DB95801}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{141893DA-5858-7B3A-AA30-0E2430BD04F8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -941,8 +944,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83963389-AC9C-4EE5-8ACC-EA1D183BB91F}">
-  <dimension ref="B2:J72"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC018A29-12AE-4FB8-A7CF-0E6CA46F3DFB}">
+  <dimension ref="B2:J74"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -966,7 +969,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1011,7 +1014,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1043,12 +1046,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>4721920</v>
+        <v>4899680</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1059,17 +1062,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C13" s="5">
         <v>2</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F13" s="5">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1096,13 +1099,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="I15" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="I15" s="13" t="s">
-        <v>52</v>
-      </c>
       <c r="J15" s="14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1524,19 +1527,19 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F34" s="18">
-        <v>100000</v>
+        <v>77760</v>
       </c>
       <c r="G34" s="18">
-        <v>2500000</v>
+        <v>1944000</v>
       </c>
       <c r="H34" s="19"/>
       <c r="I34" s="19"/>
@@ -1553,7 +1556,7 @@
         <v>10</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F35" s="18">
         <v>100000</v>
@@ -1570,19 +1573,19 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E36" s="16" t="s">
         <v>31</v>
       </c>
       <c r="F36" s="18">
-        <v>100000</v>
+        <v>77760</v>
       </c>
       <c r="G36" s="18">
-        <v>2500000</v>
+        <v>1944000</v>
       </c>
       <c r="H36" s="19"/>
       <c r="I36" s="19"/>
@@ -1616,19 +1619,19 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F38" s="18">
-        <v>100000</v>
+        <v>77760</v>
       </c>
       <c r="G38" s="18">
-        <v>2500000</v>
+        <v>1944000</v>
       </c>
       <c r="H38" s="19"/>
       <c r="I38" s="19"/>
@@ -1645,7 +1648,7 @@
         <v>10</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F39" s="18">
         <v>100000</v>
@@ -1662,19 +1665,19 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F40" s="18">
-        <v>100000</v>
+        <v>77760</v>
       </c>
       <c r="G40" s="18">
-        <v>2500000</v>
+        <v>1944000</v>
       </c>
       <c r="H40" s="19"/>
       <c r="I40" s="19"/>
@@ -1691,7 +1694,7 @@
         <v>10</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F41" s="18">
         <v>100000</v>
@@ -1708,19 +1711,19 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F42" s="18">
-        <v>100000</v>
+        <v>77760</v>
       </c>
       <c r="G42" s="18">
-        <v>2500000</v>
+        <v>1944000</v>
       </c>
       <c r="H42" s="19"/>
       <c r="I42" s="19"/>
@@ -1737,7 +1740,7 @@
         <v>10</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F43" s="18">
         <v>100000</v>
@@ -1754,19 +1757,19 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F44" s="18">
-        <v>100000</v>
+        <v>77760</v>
       </c>
       <c r="G44" s="18">
-        <v>2500000</v>
+        <v>1944000</v>
       </c>
       <c r="H44" s="19"/>
       <c r="I44" s="19"/>
@@ -1783,7 +1786,7 @@
         <v>10</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F45" s="18">
         <v>100000</v>
@@ -1800,19 +1803,19 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F46" s="18">
-        <v>100000</v>
+        <v>77760</v>
       </c>
       <c r="G46" s="18">
-        <v>2500000</v>
+        <v>1944000</v>
       </c>
       <c r="H46" s="19"/>
       <c r="I46" s="19"/>
@@ -1829,7 +1832,7 @@
         <v>10</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="F47" s="18">
         <v>100000</v>
@@ -1846,19 +1849,19 @@
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F48" s="18">
-        <v>100000</v>
+        <v>77760</v>
       </c>
       <c r="G48" s="18">
-        <v>2500000</v>
+        <v>1944000</v>
       </c>
       <c r="H48" s="19"/>
       <c r="I48" s="19"/>
@@ -1875,7 +1878,7 @@
         <v>10</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="F49" s="18">
         <v>100000</v>
@@ -1892,13 +1895,13 @@
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="F50" s="18">
         <v>77760</v>
@@ -1915,19 +1918,19 @@
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="F51" s="18">
-        <v>77760</v>
+        <v>100000</v>
       </c>
       <c r="G51" s="18">
-        <v>1944000</v>
+        <v>2500000</v>
       </c>
       <c r="H51" s="19"/>
       <c r="I51" s="19"/>
@@ -1938,13 +1941,13 @@
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="F52" s="18">
         <v>77760</v>
@@ -1961,19 +1964,19 @@
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="F53" s="18">
-        <v>77760</v>
+        <v>100000</v>
       </c>
       <c r="G53" s="18">
-        <v>1944000</v>
+        <v>2500000</v>
       </c>
       <c r="H53" s="19"/>
       <c r="I53" s="19"/>
@@ -1984,13 +1987,13 @@
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="F54" s="18">
         <v>77760</v>
@@ -2007,19 +2010,19 @@
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="F55" s="18">
-        <v>77760</v>
+        <v>100000</v>
       </c>
       <c r="G55" s="18">
-        <v>1944000</v>
+        <v>2500000</v>
       </c>
       <c r="H55" s="19"/>
       <c r="I55" s="19"/>
@@ -2030,13 +2033,13 @@
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="F56" s="18">
         <v>77760</v>
@@ -2053,19 +2056,19 @@
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="F57" s="18">
-        <v>77760</v>
+        <v>100000</v>
       </c>
       <c r="G57" s="18">
-        <v>1944000</v>
+        <v>2500000</v>
       </c>
       <c r="H57" s="19"/>
       <c r="I57" s="19"/>
@@ -2076,13 +2079,13 @@
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="F58" s="18">
         <v>77760</v>
@@ -2099,19 +2102,19 @@
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="F59" s="18">
-        <v>77760</v>
+        <v>100000</v>
       </c>
       <c r="G59" s="18">
-        <v>1944000</v>
+        <v>2500000</v>
       </c>
       <c r="H59" s="19"/>
       <c r="I59" s="19"/>
@@ -2122,13 +2125,13 @@
         <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="F60" s="18">
         <v>77760</v>
@@ -2145,19 +2148,19 @@
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="F61" s="18">
-        <v>77760</v>
+        <v>100000</v>
       </c>
       <c r="G61" s="18">
-        <v>1944000</v>
+        <v>2500000</v>
       </c>
       <c r="H61" s="19"/>
       <c r="I61" s="19"/>
@@ -2168,13 +2171,13 @@
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="F62" s="18">
         <v>77760</v>
@@ -2191,19 +2194,19 @@
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D63" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E63" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="D63" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="E63" s="16" t="s">
-        <v>24</v>
-      </c>
       <c r="F63" s="18">
-        <v>77760</v>
+        <v>100000</v>
       </c>
       <c r="G63" s="18">
-        <v>1944000</v>
+        <v>2500000</v>
       </c>
       <c r="H63" s="19"/>
       <c r="I63" s="19"/>
@@ -2214,13 +2217,13 @@
         <v>8</v>
       </c>
       <c r="C64" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D64" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E64" s="16" t="s">
         <v>45</v>
-      </c>
-      <c r="D64" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="E64" s="16" t="s">
-        <v>25</v>
       </c>
       <c r="F64" s="18">
         <v>77760</v>
@@ -2237,75 +2240,121 @@
         <v>8</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="D65" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E65" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="E65" s="16" t="s">
-        <v>26</v>
-      </c>
       <c r="F65" s="18">
-        <v>77760</v>
+        <v>100000</v>
       </c>
       <c r="G65" s="18">
-        <v>1944000</v>
+        <v>2500000</v>
       </c>
       <c r="H65" s="19"/>
       <c r="I65" s="19"/>
       <c r="J65" s="20"/>
     </row>
     <row r="66" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B66" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C66" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="D66" s="23" t="s">
+      <c r="B66" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C66" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D66" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E66" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="E66" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="F66" s="24">
+      <c r="F66" s="18">
         <v>77760</v>
       </c>
-      <c r="G66" s="24">
+      <c r="G66" s="18">
         <v>1944000</v>
       </c>
-      <c r="H66" s="25"/>
-      <c r="I66" s="25"/>
-      <c r="J66" s="26"/>
-    </row>
-    <row r="71" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B71" s="32" t="s">
+      <c r="H66" s="19"/>
+      <c r="I66" s="19"/>
+      <c r="J66" s="20"/>
+    </row>
+    <row r="67" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B67" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C67" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D67" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E67" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="F67" s="18">
+        <v>100000</v>
+      </c>
+      <c r="G67" s="18">
+        <v>2500000</v>
+      </c>
+      <c r="H67" s="19"/>
+      <c r="I67" s="19"/>
+      <c r="J67" s="20"/>
+    </row>
+    <row r="68" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B68" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C68" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="D68" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="E68" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="F68" s="24">
+        <v>77760</v>
+      </c>
+      <c r="G68" s="24">
+        <v>1944000</v>
+      </c>
+      <c r="H68" s="25"/>
+      <c r="I68" s="25"/>
+      <c r="J68" s="26"/>
+    </row>
+    <row r="73" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B73" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="C73" s="32"/>
+      <c r="H73" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I73" s="1"/>
+      <c r="J73" s="1"/>
+    </row>
+    <row r="74" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B74" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="C71" s="32"/>
-      <c r="H71" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="I71" s="1"/>
-      <c r="J71" s="1"/>
-    </row>
-    <row r="72" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B72" s="32" t="s">
-        <v>55</v>
-      </c>
-      <c r="C72" s="32"/>
-      <c r="H72" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="I72" s="1"/>
-      <c r="J72" s="1"/>
+      <c r="C74" s="32"/>
+      <c r="H74" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I74" s="1"/>
+      <c r="J74" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="H72:J72"/>
-    <mergeCell ref="H71:J71"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="H74:J74"/>
+    <mergeCell ref="H73:J73"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>
